--- a/SPPSApi/Doc/Template/FS0604.xlsx
+++ b/SPPSApi/Doc/Template/FS0604.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>收容数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,26 @@
   </si>
   <si>
     <t>包装工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,93 +446,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="14" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.54296875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>注意!$C$7:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A4"/>
+  <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0604.xlsx
+++ b/SPPSApi/Doc/Template/FS0604.xlsx
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +95,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -472,10 +472,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -561,17 +561,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
